--- a/[服務商優惠徵集 ] 2025 Q4銷售旺季準備 (Responses)(3).xlsx
+++ b/[服務商優惠徵集 ] 2025 Q4銷售旺季準備 (Responses)(3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanniel\OneDrive - amazon.com\桌面\2025 Q4 SSP benefits\Q4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8468B-0BDF-48BD-832D-B70A9FE61AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0F2D7E-7F8B-4CFF-BFFC-A13FC79DD9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,12 +122,6 @@
     <t>https://drive.google.com/open?id=1aM1kNR2fgXUm6jcuV6NFtRrM6GWgcl2B</t>
   </si>
   <si>
-    <t>Doris</t>
-  </si>
-  <si>
-    <t>dorislin@transbiz.co</t>
-  </si>
-  <si>
     <t>TransBiz</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>https://drive.google.com/open?id=1jfzl9rPGSHt8PwhmEoslmW9-5bPN9Sn4</t>
   </si>
   <si>
-    <t>0932202623</t>
-  </si>
-  <si>
     <t>@transbiz</t>
   </si>
   <si>
@@ -447,9 +438,6 @@
   </si>
   <si>
     <t>0983406811</t>
-  </si>
-  <si>
-    <t>Bryan Chou</t>
   </si>
   <si>
     <t>bryan@gladstonefulfillment.com</t>
@@ -472,9 +460,6 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1vx3y8grxTWNM1GKDbqC047Vvyas5ly-H</t>
-  </si>
-  <si>
-    <t>909-235-6253</t>
   </si>
   <si>
     <t>洪銘言 Frank</t>
@@ -646,6 +631,33 @@
   </si>
   <si>
     <t>VAT和設立公司專屬優惠</t>
+  </si>
+  <si>
+    <t>亞馬遜陪跑教練方案：教練會依據需要登入賣家帳戶觀察，督促進度並提出滾動式建議。成立獨立 Line 群組，發現問題立即通知，並提供處理方法讓您的營運人員執行。原價13,500/月，買3個月就送1個月(75折優惠) 。</t>
+  </si>
+  <si>
+    <t>亞馬遜文案升級包：協助您優化品牌提升視覺一致性，原價15,000元 ，專屬優惠價:10,000元。</t>
+  </si>
+  <si>
+    <t>02-2545-8780</t>
+  </si>
+  <si>
+    <t>@viewec</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>seanhsiang@transbiz.co</t>
+  </si>
+  <si>
+    <t>0932999788</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0958-652-960 </t>
   </si>
   <si>
     <t>日本海運/歐洲海運方案: 折扣 新台幣$2,000/票
@@ -659,29 +671,17 @@
 100KG+   新台幣$239/KG
 150KG+   新台幣$209/KG
 200KG+   新台幣$99/KG
-250KG+   新台幣$189/KG
+250KG+   新台幣$89/KG
 澳洲亞馬遜海運方案門到門專案價:
 新台幣$20,800/首CBM
 新台幣$7,000/續CBM</t>
-  </si>
-  <si>
-    <t>亞馬遜陪跑教練方案：教練會依據需要登入賣家帳戶觀察，督促進度並提出滾動式建議。成立獨立 Line 群組，發現問題立即通知，並提供處理方法讓您的營運人員執行。原價13,500/月，買3個月就送1個月(75折優惠) 。</t>
-  </si>
-  <si>
-    <t>亞馬遜文案升級包：協助您優化品牌提升視覺一致性，原價15,000元 ，專屬優惠價:10,000元。</t>
-  </si>
-  <si>
-    <t>02-2545-8780</t>
-  </si>
-  <si>
-    <t>@viewec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -766,6 +766,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos"/>
       <family val="2"/>
@@ -911,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1016,6 +1022,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,7 +1313,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1361,30 +1368,30 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="9"/>
@@ -1400,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
@@ -1418,10 +1425,10 @@
         <v>27</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L3" s="36" t="s">
         <v>28</v>
@@ -1429,92 +1436,92 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="37" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8"/>
@@ -1559,98 +1566,98 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="H10" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="I10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>146</v>
+      <c r="J10" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="K10" s="5">
         <v>8166826864</v>
@@ -1659,495 +1666,495 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="H12" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="I12" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="J12" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="L16" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="L17" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>185</v>
-      </c>
       <c r="F18" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="J20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="K20" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="H21" s="34" t="s">
         <v>165</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>170</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="H22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="K22" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="K23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="L23" s="29" t="s">
         <v>77</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="29" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/[服務商優惠徵集 ] 2025 Q4銷售旺季準備 (Responses)(3).xlsx
+++ b/[服務商優惠徵集 ] 2025 Q4銷售旺季準備 (Responses)(3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanniel\OneDrive - amazon.com\桌面\2025 Q4 SSP benefits\Q4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0F2D7E-7F8B-4CFF-BFFC-A13FC79DD9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98AB13E-41D3-4D8F-B77D-9235784AFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="194">
   <si>
     <t>您的姓名</t>
   </si>
@@ -98,18 +98,9 @@
     <t>https://drive.google.com/open?id=1mVTDXUyKeFgF6C99gb0G5SgIU8s4tLg9</t>
   </si>
   <si>
-    <t>0975127727</t>
-  </si>
-  <si>
-    <t>a93324u</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1kF0LrfX9YDevx0yEEq_LtpEK6CMLs6_O</t>
   </si>
   <si>
-    <t>秩宇 Wiser</t>
-  </si>
-  <si>
     <t>亞馬遜視覺設計入門方案，只要您提供素材與文案，我們能迅速設計品刊登圖與Basic A+圖，讓您快速更新產品視覺。原價27,000元，優惠價24,300元。</t>
   </si>
   <si>
@@ -194,12 +185,6 @@
     <t>https://drive.google.com/open?id=1vsPUpSdwWME9XsooKajxlSrrbpMhku7u</t>
   </si>
   <si>
-    <t>吳廷萱</t>
-  </si>
-  <si>
-    <t>lindawu1969@gmail.com</t>
-  </si>
-  <si>
     <t>靈志科技有限公司</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
   </si>
   <si>
     <t>靈志科技是Chance Creative在台灣地區成立的運營實體，而Chance Creative是亞馬遜全球認證的Amazon Ads Verified Partner，在品牌出海的多媒體/短影音拍攝領域擁有豐富的經驗和專業知識，特別是面對國際市場的品牌/商品定位與賣點提煉、行銷素材(平面/影片)拍攝和影音廣告投放規畫部分，能夠為客戶提供高品質的服務。</t>
-  </si>
-  <si>
-    <t>ChanceSight.com</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1wDiUmmByVQtEyMe_bfD6gCTg3Qhxnfxd</t>
@@ -675,6 +657,16 @@
 澳洲亞馬遜海運方案門到門專案價:
 新台幣$20,800/首CBM
 新台幣$7,000/續CBM</t>
+  </si>
+  <si>
+    <t>Linda Wu</t>
+  </si>
+  <si>
+    <t>lindawu1969@gmail.com
+lindawu@chancevideos.com</t>
+  </si>
+  <si>
+    <t>chancesight.com</t>
   </si>
 </sst>
 </file>
@@ -917,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1023,6 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,7 +1306,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1368,30 +1361,30 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="9"/>
@@ -1403,17 +1396,17 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -1422,111 +1415,111 @@
         <v>19</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="37" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1554,110 +1547,110 @@
       <c r="I7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="J10" s="40" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K10" s="5">
         <v>8166826864</v>
@@ -1666,495 +1659,495 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="I12" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="J12" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="H14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="L16" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>181</v>
-      </c>
       <c r="F19" s="19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="K20" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="34" t="s">
         <v>159</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>165</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="I22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2176,50 +2169,49 @@
     <hyperlink ref="H13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="I13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="L13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I14" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L17" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F2" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I2" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F12" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H12" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="H22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="H9" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="I9" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F10" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="H10" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I10" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H6" r:id="rId47" xr:uid="{CDFB95C5-10B5-4E36-9F5E-59AE6C21F9D7}"/>
-    <hyperlink ref="I6" r:id="rId48" xr:uid="{AD347F81-AA46-4DF6-BAEB-EB6F2DE49355}"/>
-    <hyperlink ref="H11" r:id="rId49" xr:uid="{58FA5D75-B39F-4E43-809E-72CE74C75277}"/>
-    <hyperlink ref="I11" r:id="rId50" xr:uid="{9A7600B6-AD3A-4A8D-B45D-785C3C0ED984}"/>
-    <hyperlink ref="H20" r:id="rId51" xr:uid="{B6AACCDB-B79A-4EE2-AA59-50AA6E2B7B1B}"/>
-    <hyperlink ref="I20" r:id="rId52" xr:uid="{B460BD78-8278-4357-AACA-DAB32C4E8EA3}"/>
-    <hyperlink ref="F21" r:id="rId53" xr:uid="{1517318B-9902-4EE4-8D25-264A111EBD03}"/>
-    <hyperlink ref="H21" r:id="rId54" xr:uid="{70F1B2A9-20CF-4F44-977A-552BC6A01FFE}"/>
-    <hyperlink ref="L21" r:id="rId55" xr:uid="{9EB29119-3952-4515-BA73-8E12C500DDD1}"/>
-    <hyperlink ref="F4" r:id="rId56" xr:uid="{5421AA03-A800-450C-8EF2-ABCB3603D201}"/>
-    <hyperlink ref="I4" r:id="rId57" xr:uid="{FD4BF877-9819-4979-9B5B-574B85B7362A}"/>
+    <hyperlink ref="I14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F2" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I2" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F12" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H12" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I12" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F22" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H9" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I9" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F10" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="H10" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I10" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H6" r:id="rId46" xr:uid="{CDFB95C5-10B5-4E36-9F5E-59AE6C21F9D7}"/>
+    <hyperlink ref="I6" r:id="rId47" xr:uid="{AD347F81-AA46-4DF6-BAEB-EB6F2DE49355}"/>
+    <hyperlink ref="H11" r:id="rId48" xr:uid="{58FA5D75-B39F-4E43-809E-72CE74C75277}"/>
+    <hyperlink ref="I11" r:id="rId49" xr:uid="{9A7600B6-AD3A-4A8D-B45D-785C3C0ED984}"/>
+    <hyperlink ref="H20" r:id="rId50" xr:uid="{B6AACCDB-B79A-4EE2-AA59-50AA6E2B7B1B}"/>
+    <hyperlink ref="I20" r:id="rId51" xr:uid="{B460BD78-8278-4357-AACA-DAB32C4E8EA3}"/>
+    <hyperlink ref="F21" r:id="rId52" xr:uid="{1517318B-9902-4EE4-8D25-264A111EBD03}"/>
+    <hyperlink ref="H21" r:id="rId53" xr:uid="{70F1B2A9-20CF-4F44-977A-552BC6A01FFE}"/>
+    <hyperlink ref="L21" r:id="rId54" xr:uid="{9EB29119-3952-4515-BA73-8E12C500DDD1}"/>
+    <hyperlink ref="F4" r:id="rId55" xr:uid="{5421AA03-A800-450C-8EF2-ABCB3603D201}"/>
+    <hyperlink ref="I4" r:id="rId56" xr:uid="{FD4BF877-9819-4979-9B5B-574B85B7362A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId58"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
 </worksheet>
 </file>
--- a/[服務商優惠徵集 ] 2025 Q4銷售旺季準備 (Responses)(3).xlsx
+++ b/[服務商優惠徵集 ] 2025 Q4銷售旺季準備 (Responses)(3).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanniel\OneDrive - amazon.com\桌面\2025 Q4 SSP benefits\Q4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98AB13E-41D3-4D8F-B77D-9235784AFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E96917-23B0-491E-BE38-F43F2D99E548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="204">
   <si>
     <t>您的姓名</t>
   </si>
@@ -668,12 +668,42 @@
   <si>
     <t>chancesight.com</t>
   </si>
+  <si>
+    <t>Jinny Chen</t>
+  </si>
+  <si>
+    <t>info@tw.drs.network</t>
+  </si>
+  <si>
+    <t>DRS 跨境電商整合服務</t>
+  </si>
+  <si>
+    <t>廣告帳號健診單次 3,3000起，專案優惠價 9折</t>
+  </si>
+  <si>
+    <t>工具(如選品/市調/廣告工具等)</t>
+  </si>
+  <si>
+    <t>原價 33,000起，專案優惠方案9折</t>
+  </si>
+  <si>
+    <t>DRS 跨境電商自2015起協助多家企業成功於美加、日、英歐、澳等地經營跨境電商事業，專注協助品牌拓展全球。提供廣告投放、帳號運營、市場數據分析報告與銷售策略諮詢建議等服務，導入AI技術加速，是您成長路上的長期經營最佳夥伴。</t>
+  </si>
+  <si>
+    <t>https://www.drs.network/</t>
+  </si>
+  <si>
+    <t>https://www.drs.network</t>
+  </si>
+  <si>
+    <t>02-2837-8995</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -768,16 +798,40 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -905,11 +959,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1016,8 +1142,31 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -1078,8 +1227,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:L25" headerRowDxfId="0">
-  <autoFilter ref="A1:L25" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:L27" headerRowDxfId="0">
+  <autoFilter ref="A1:L27" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L24">
     <sortCondition ref="D1:D24"/>
   </sortState>
@@ -1302,11 +1451,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2140,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>153</v>
       </c>
@@ -2004,7 +2153,7 @@
       <c r="D21" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="31" t="s">
         <v>156</v>
       </c>
       <c r="F21" s="33" t="s">
@@ -2133,7 +2282,7 @@
       </c>
       <c r="L24" s="28"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
@@ -2149,6 +2298,62 @@
       <c r="E25" s="38" t="s">
         <v>182</v>
       </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="47"/>
+      <c r="J27" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2208,10 +2413,12 @@
     <hyperlink ref="L21" r:id="rId54" xr:uid="{9EB29119-3952-4515-BA73-8E12C500DDD1}"/>
     <hyperlink ref="F4" r:id="rId55" xr:uid="{5421AA03-A800-450C-8EF2-ABCB3603D201}"/>
     <hyperlink ref="I4" r:id="rId56" xr:uid="{FD4BF877-9819-4979-9B5B-574B85B7362A}"/>
+    <hyperlink ref="H26" r:id="rId57" xr:uid="{4DF19FFB-838C-4FD7-ACB5-E085CFB2A52F}"/>
+    <hyperlink ref="H27" r:id="rId58" display="https://www.drs.network/" xr:uid="{A67567A2-9377-46E6-BEA4-7190A28B79BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId57"/>
+    <tablePart r:id="rId59"/>
   </tableParts>
 </worksheet>
 </file>
--- a/[服務商優惠徵集 ] 2025 Q4銷售旺季準備 (Responses)(3).xlsx
+++ b/[服務商優惠徵集 ] 2025 Q4銷售旺季準備 (Responses)(3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanniel\OneDrive - amazon.com\桌面\2025 Q4 SSP benefits\Q4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E96917-23B0-491E-BE38-F43F2D99E548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120B36BD-225A-4FC3-85C3-16D6561430A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1455,7 +1455,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
